--- a/DAX Search with IF/SearchReplaceDaxSample.xlsx
+++ b/DAX Search with IF/SearchReplaceDaxSample.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="V:\Ulysses\Blog Articles\SearchReplaceDax\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\steve\Documents\5MinuteBIRepo\DAX Search with IF\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1F9D82D-BD13-4C19-BFBF-1E9F15B10DB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
+    <workbookView xWindow="51135" yWindow="2040" windowWidth="19755" windowHeight="11610" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>Original</t>
   </si>
@@ -50,19 +51,22 @@
     <t>Service</t>
   </si>
   <si>
-    <t>SERVICE</t>
-  </si>
-  <si>
     <t>PRODUCT</t>
   </si>
   <si>
     <t>Returns</t>
+  </si>
+  <si>
+    <t>SERVICE that I Nolonger Use</t>
+  </si>
+  <si>
+    <t>SERVICE 2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -112,9 +116,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:A12" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:A13" totalsRowShown="0">
   <tableColumns count="1">
-    <tableColumn id="1" name="Original"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Original"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -416,75 +420,80 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:A13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.61328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
         <v>10</v>
       </c>
     </row>
